--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Research.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97611DE2-C4D9-4ABE-AA92-CDC922DC28D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B17B22-EBFA-4331-ADCA-FB976C3C5A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3060" windowWidth="17790" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="1" r:id="rId1"/>
@@ -148,12 +148,6 @@
     <t>Departamento de Justiça</t>
   </si>
   <si>
-    <t>Departamento de Vida</t>
-  </si>
-  <si>
-    <t>Departamento de Economia</t>
-  </si>
-  <si>
     <t>Plano de Testes A</t>
   </si>
   <si>
@@ -161,6 +155,12 @@
   </si>
   <si>
     <t>Pedra da Cidade</t>
+  </si>
+  <si>
+    <t>Departamento da Vida</t>
+  </si>
+  <si>
+    <t>Departamento da Economia</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -672,7 +672,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -689,7 +689,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -706,7 +706,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -723,7 +723,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
